--- a/Assets/10.Data/ItemDataTable.xlsx
+++ b/Assets/10.Data/ItemDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\Project_60Days\Assets\10.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project_60Days\Assets\10.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388541D-3CD7-4913-9D17-7903881574E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -769,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1166,10 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM_TIER_1_METAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1191,13 +1188,17 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_TIER_1_STEEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1321,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,12 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,11 +1632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1656,46 +1651,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1706,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
@@ -1728,7 +1723,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1737,19 +1732,19 @@
       <c r="C3" s="3">
         <v>1001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>50</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1764,16 +1759,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1002</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>-1</v>
@@ -1786,16 +1781,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>1003</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>-1</v>
@@ -1808,16 +1803,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>1004</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>-1</v>
@@ -1830,16 +1825,16 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>1005</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <v>-1</v>
@@ -1852,16 +1847,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1006</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
         <v>-1</v>
@@ -1879,11 +1874,11 @@
       <c r="C9" s="3">
         <v>1007</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3">
         <v>-1</v>
@@ -1901,11 +1896,11 @@
       <c r="C10" s="3">
         <v>1008</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>-1</v>
@@ -1923,11 +1918,11 @@
       <c r="C11" s="3">
         <v>1009</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3">
         <v>-1</v>
@@ -1945,11 +1940,11 @@
       <c r="C12" s="3">
         <v>1010</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
         <v>-1</v>
@@ -1967,11 +1962,11 @@
       <c r="C13" s="3">
         <v>1011</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
         <v>-1</v>
@@ -1989,11 +1984,11 @@
       <c r="C14" s="3">
         <v>1012</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3">
         <v>-1</v>
@@ -2011,11 +2006,11 @@
       <c r="C15" s="3">
         <v>1013</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
         <v>-1</v>
@@ -2033,11 +2028,11 @@
       <c r="C16" s="3">
         <v>1014</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3">
         <v>-1</v>
@@ -2055,11 +2050,11 @@
       <c r="C17" s="3">
         <v>1015</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
         <v>-1</v>
@@ -2077,11 +2072,11 @@
       <c r="C18" s="3">
         <v>1016</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3">
         <v>-1</v>
@@ -2099,11 +2094,11 @@
       <c r="C19" s="3">
         <v>1017</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
         <v>-1</v>
@@ -2121,11 +2116,11 @@
       <c r="C20" s="3">
         <v>1018</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
         <v>-1</v>
@@ -2143,11 +2138,11 @@
       <c r="C21" s="3">
         <v>1019</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
         <v>-1</v>
@@ -2165,11 +2160,11 @@
       <c r="C22" s="3">
         <v>1020</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
         <v>-1</v>
@@ -2187,11 +2182,11 @@
       <c r="C23" s="3">
         <v>1021</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
         <v>-1</v>
@@ -2209,11 +2204,11 @@
       <c r="C24" s="3">
         <v>1022</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
         <v>-1</v>
@@ -2231,11 +2226,11 @@
       <c r="C25" s="3">
         <v>1023</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
         <v>-1</v>
@@ -2253,11 +2248,11 @@
       <c r="C26" s="3">
         <v>1024</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
         <v>-1</v>
@@ -2275,11 +2270,11 @@
       <c r="C27" s="3">
         <v>1025</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
         <v>-1</v>
@@ -2297,11 +2292,11 @@
       <c r="C28" s="3">
         <v>1026</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
         <v>-1</v>
@@ -2319,11 +2314,11 @@
       <c r="C29" s="3">
         <v>1027</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3">
         <v>-1</v>
@@ -2341,11 +2336,11 @@
       <c r="C30" s="3">
         <v>1028</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3">
         <v>-1</v>
@@ -2363,11 +2358,11 @@
       <c r="C31" s="3">
         <v>1029</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3">
         <v>-1</v>
@@ -2385,11 +2380,11 @@
       <c r="C32" s="3">
         <v>1030</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3">
         <v>-1</v>
@@ -2407,11 +2402,11 @@
       <c r="C33" s="3">
         <v>1031</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
         <v>-1</v>
